--- a/闭包.xlsx
+++ b/闭包.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12210"/>
+    <workbookView windowWidth="28125" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -20,6 +20,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>JS</t>
     </r>
     <r>
@@ -103,6 +109,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>所谓环境，可以理解为一块</t>
     </r>
     <r>
@@ -120,6 +132,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>函数执行就会开辟一个</t>
     </r>
     <r>
@@ -152,6 +170,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>所以函数执行后就会被</t>
     </r>
     <r>
@@ -190,6 +214,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>函数没被调用就不会</t>
     </r>
     <r>
@@ -232,9 +262,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -281,81 +311,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -365,38 +320,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,6 +441,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,13 +525,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,25 +561,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,127 +585,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,21 +645,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -644,13 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,6 +721,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -710,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,16 +752,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,13 +773,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,95 +794,95 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +893,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1186,13 +1219,13 @@
   <sheetPr/>
   <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1273,8 +1306,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
+    <row r="9" ht="27" spans="2:6">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F9" t="s">
